--- a/src/test/resources/ApiInfo.xlsx
+++ b/src/test/resources/ApiInfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanxian/IdeaProjects/oligei/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanxian/IdeaProjects/oligei/src/test/resources/testcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE18F42-AA08-404F-8584-34F4ECEBD6B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275CB7B0-A860-3E48-835F-5EE29D9A7386}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="28240" windowHeight="16600" activeTab="1" xr2:uid="{27CA13D7-195C-5947-8234-C42BA9DAC00B}"/>
+    <workbookView xWindow="1320" yWindow="1100" windowWidth="28240" windowHeight="16600" xr2:uid="{27CA13D7-195C-5947-8234-C42BA9DAC00B}"/>
   </bookViews>
   <sheets>
     <sheet name="apiinfo" sheetId="1" r:id="rId1"/>
@@ -26,24 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>ApiId(接口编号)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ApiName（接口名称）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type（接口提交方式）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL（接口地址）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RequestData（请求参数）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,6 +85,34 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActualResultData(实际返回结果)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApiId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApiName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestData</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,19 +172,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,141 +501,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1132C38E-5821-DB48-837C-ED907CE1280B}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="64.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="41.33203125" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DE4244-5304-4C40-8A3B-19CEE1C80BB4}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="62.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" style="2" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2">
-        <v>3</v>
+      <c r="A4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DE4244-5304-4C40-8A3B-19CEE1C80BB4}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="26.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="62.83203125" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
